--- a/image test/imgorder_en.xlsx
+++ b/image test/imgorder_en.xlsx
@@ -465,19 +465,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>word/worden0371.png</t>
+          <t>word/worden0871.png</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>image/False/imgf37.png</t>
+          <t>image/False/imgf87.png</t>
         </is>
       </c>
     </row>
@@ -486,19 +486,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>word/worden0101.png</t>
+          <t>word/worden0931.png</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>image/False/imgf10.png</t>
+          <t>image/False/imgf93.png</t>
         </is>
       </c>
     </row>
@@ -507,19 +507,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>word/worden0961.png</t>
+          <t>word/worden0231.png</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>image/True/img96.png</t>
+          <t>image/False/imgf23.png</t>
         </is>
       </c>
     </row>
@@ -528,19 +528,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>word/worden0301.png</t>
+          <t>word/worden0101.png</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>image/True/img30.png</t>
+          <t>image/True/img10.png</t>
         </is>
       </c>
     </row>
@@ -549,19 +549,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>word/worden0681.png</t>
+          <t>word/worden0501.png</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>image/True/img68.png</t>
+          <t>image/False/imgf50.png</t>
         </is>
       </c>
     </row>
@@ -570,19 +570,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>word/worden0591.png</t>
+          <t>word/worden0331.png</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>image/False/imgf59.png</t>
+          <t>image/True/img33.png</t>
         </is>
       </c>
     </row>
@@ -591,19 +591,19 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>word/worden0751.png</t>
+          <t>word/worden0951.png</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>image/False/imgf75.png</t>
+          <t>image/False/imgf95.png</t>
         </is>
       </c>
     </row>
@@ -612,19 +612,19 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>word/worden0701.png</t>
+          <t>word/worden0071.png</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>image/True/img70.png</t>
+          <t>image/False/imgf07.png</t>
         </is>
       </c>
     </row>
@@ -633,19 +633,19 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>word/worden0681.png</t>
+          <t>word/worden0281.png</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>image/True/img68.png</t>
+          <t>image/True/img28.png</t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>word/worden0061.png</t>
+          <t>word/worden0381.png</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>image/True/img06.png</t>
+          <t>image/True/img38.png</t>
         </is>
       </c>
     </row>
@@ -675,19 +675,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>word/worden0611.png</t>
+          <t>word/worden0331.png</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>image/True/img61.png</t>
+          <t>image/False/imgf33.png</t>
         </is>
       </c>
     </row>
@@ -696,19 +696,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>word/worden0931.png</t>
+          <t>word/worden0761.png</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>image/False/imgf93.png</t>
+          <t>image/True/img76.png</t>
         </is>
       </c>
     </row>
@@ -717,19 +717,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>word/worden0641.png</t>
+          <t>word/worden0751.png</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>image/True/img64.png</t>
+          <t>image/False/imgf75.png</t>
         </is>
       </c>
     </row>
@@ -738,19 +738,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>word/worden0541.png</t>
+          <t>word/worden0071.png</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>image/False/imgf54.png</t>
+          <t>image/True/img07.png</t>
         </is>
       </c>
     </row>
@@ -780,19 +780,19 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>word/worden0871.png</t>
+          <t>word/worden0591.png</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>image/True/img87.png</t>
+          <t>image/False/imgf59.png</t>
         </is>
       </c>
     </row>
@@ -801,19 +801,19 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>word/worden0361.png</t>
+          <t>word/worden0541.png</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>image/False/imgf36.png</t>
+          <t>image/False/imgf54.png</t>
         </is>
       </c>
     </row>
@@ -822,19 +822,19 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>word/worden0661.png</t>
+          <t>word/worden0061.png</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>image/True/img66.png</t>
+          <t>image/True/img06.png</t>
         </is>
       </c>
     </row>
@@ -843,19 +843,19 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>word/worden0561.png</t>
+          <t>word/worden0411.png</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>image/True/img56.png</t>
+          <t>image/True/img41.png</t>
         </is>
       </c>
     </row>
@@ -864,19 +864,19 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>word/worden0081.png</t>
+          <t>word/worden0421.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>image/True/img08.png</t>
+          <t>image/False/imgf42.png</t>
         </is>
       </c>
     </row>
@@ -885,19 +885,19 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>word/worden0201.png</t>
+          <t>word/worden0641.png</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>image/True/img20.png</t>
+          <t>image/False/imgf64.png</t>
         </is>
       </c>
     </row>
@@ -906,19 +906,19 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>word/worden0711.png</t>
+          <t>word/worden0961.png</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>image/True/img71.png</t>
+          <t>image/True/img96.png</t>
         </is>
       </c>
     </row>
@@ -927,19 +927,19 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>word/worden0371.png</t>
+          <t>word/worden0761.png</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>image/True/img37.png</t>
+          <t>image/False/imgf76.png</t>
         </is>
       </c>
     </row>
@@ -948,19 +948,19 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>word/worden0521.png</t>
+          <t>word/worden0171.png</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>image/False/imgf52.png</t>
+          <t>image/True/img17.png</t>
         </is>
       </c>
     </row>
@@ -969,19 +969,19 @@
         <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>word/worden0411.png</t>
+          <t>word/worden0061.png</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>image/True/img41.png</t>
+          <t>image/True/img06.png</t>
         </is>
       </c>
     </row>
@@ -990,19 +990,19 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>word/worden0551.png</t>
+          <t>word/worden0881.png</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>image/True/img55.png</t>
+          <t>image/True/img88.png</t>
         </is>
       </c>
     </row>
@@ -1011,19 +1011,19 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>word/worden0281.png</t>
+          <t>word/worden0441.png</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>image/False/imgf28.png</t>
+          <t>image/True/img44.png</t>
         </is>
       </c>
     </row>
@@ -1032,19 +1032,19 @@
         <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>word/worden0061.png</t>
+          <t>word/worden0271.png</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>image/False/imgf06.png</t>
+          <t>image/False/imgf27.png</t>
         </is>
       </c>
     </row>
@@ -1053,19 +1053,19 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>word/worden0791.png</t>
+          <t>word/worden0141.png</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>image/True/img79.png</t>
+          <t>image/False/imgf14.png</t>
         </is>
       </c>
     </row>
@@ -1074,19 +1074,19 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>word/worden0421.png</t>
+          <t>word/worden0401.png</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>image/True/img42.png</t>
+          <t>image/False/imgf40.png</t>
         </is>
       </c>
     </row>
@@ -1095,19 +1095,19 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>word/worden0781.png</t>
+          <t>word/worden0011.png</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>image/True/img78.png</t>
+          <t>image/False/imgf01.png</t>
         </is>
       </c>
     </row>
@@ -1116,19 +1116,19 @@
         <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>word/worden0891.png</t>
+          <t>word/worden0031.png</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>image/False/imgf89.png</t>
+          <t>image/False/imgf03.png</t>
         </is>
       </c>
     </row>
@@ -1137,19 +1137,19 @@
         <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>word/worden0151.png</t>
+          <t>word/worden0571.png</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>image/True/img15.png</t>
+          <t>image/True/img57.png</t>
         </is>
       </c>
     </row>
@@ -1158,19 +1158,19 @@
         <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>word/worden0871.png</t>
+          <t>word/worden0881.png</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>image/True/img87.png</t>
+          <t>image/False/imgf88.png</t>
         </is>
       </c>
     </row>
@@ -1179,19 +1179,19 @@
         <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>word/worden0311.png</t>
+          <t>word/worden0521.png</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>image/False/imgf31.png</t>
+          <t>image/False/imgf52.png</t>
         </is>
       </c>
     </row>
@@ -1200,19 +1200,19 @@
         <v>2</v>
       </c>
       <c r="B37" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>word/worden0761.png</t>
+          <t>word/worden0501.png</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>image/False/imgf76.png</t>
+          <t>image/False/imgf50.png</t>
         </is>
       </c>
     </row>
@@ -1221,19 +1221,19 @@
         <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>word/worden0481.png</t>
+          <t>word/worden0781.png</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>image/False/imgf48.png</t>
+          <t>image/True/img78.png</t>
         </is>
       </c>
     </row>
@@ -1242,19 +1242,19 @@
         <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>word/worden0781.png</t>
+          <t>word/worden0611.png</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>image/False/imgf78.png</t>
+          <t>image/False/imgf61.png</t>
         </is>
       </c>
     </row>
@@ -1263,19 +1263,19 @@
         <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>word/worden0611.png</t>
+          <t>word/worden0361.png</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>image/True/img61.png</t>
+          <t>image/False/imgf36.png</t>
         </is>
       </c>
     </row>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>word/worden0071.png</t>
+          <t>word/worden0101.png</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>image/True/img07.png</t>
+          <t>image/True/img10.png</t>
         </is>
       </c>
     </row>
@@ -1305,19 +1305,19 @@
         <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>word/worden0481.png</t>
+          <t>word/worden0751.png</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>image/False/imgf48.png</t>
+          <t>image/True/img75.png</t>
         </is>
       </c>
     </row>
@@ -1326,19 +1326,19 @@
         <v>2</v>
       </c>
       <c r="B43" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>word/worden0441.png</t>
+          <t>word/worden0011.png</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>image/True/img44.png</t>
+          <t>image/True/img01.png</t>
         </is>
       </c>
     </row>
@@ -1347,19 +1347,19 @@
         <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>word/worden0611.png</t>
+          <t>word/worden0371.png</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>image/False/imgf61.png</t>
+          <t>image/True/img37.png</t>
         </is>
       </c>
     </row>
@@ -1368,19 +1368,19 @@
         <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>word/worden0711.png</t>
+          <t>word/worden0661.png</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>image/True/img71.png</t>
+          <t>image/False/imgf66.png</t>
         </is>
       </c>
     </row>
@@ -1389,19 +1389,19 @@
         <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>word/worden0511.png</t>
+          <t>word/worden0551.png</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>image/True/img51.png</t>
+          <t>image/True/img55.png</t>
         </is>
       </c>
     </row>
@@ -1410,19 +1410,19 @@
         <v>2</v>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>word/worden0401.png</t>
+          <t>word/worden0701.png</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>image/False/imgf40.png</t>
+          <t>image/False/imgf70.png</t>
         </is>
       </c>
     </row>
@@ -1431,19 +1431,19 @@
         <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>word/worden0641.png</t>
+          <t>word/worden0681.png</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>image/False/imgf64.png</t>
+          <t>image/False/imgf68.png</t>
         </is>
       </c>
     </row>
@@ -1452,19 +1452,19 @@
         <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>word/worden0381.png</t>
+          <t>word/worden0751.png</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>image/False/imgf38.png</t>
+          <t>image/True/img75.png</t>
         </is>
       </c>
     </row>
@@ -1473,19 +1473,19 @@
         <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>word/worden0231.png</t>
+          <t>word/worden0381.png</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>image/False/imgf23.png</t>
+          <t>image/True/img38.png</t>
         </is>
       </c>
     </row>
@@ -1494,19 +1494,19 @@
         <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>word/worden0231.png</t>
+          <t>word/worden0421.png</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>image/True/img23.png</t>
+          <t>image/True/img42.png</t>
         </is>
       </c>
     </row>
@@ -1515,19 +1515,19 @@
         <v>2</v>
       </c>
       <c r="B52" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>word/worden0141.png</t>
+          <t>word/worden0111.png</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>image/False/imgf14.png</t>
+          <t>image/False/imgf11.png</t>
         </is>
       </c>
     </row>
@@ -1536,19 +1536,19 @@
         <v>2</v>
       </c>
       <c r="B53" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>word/worden0151.png</t>
+          <t>word/worden0411.png</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>image/True/img15.png</t>
+          <t>image/False/imgf41.png</t>
         </is>
       </c>
     </row>
@@ -1557,19 +1557,19 @@
         <v>2</v>
       </c>
       <c r="B54" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>word/worden0551.png</t>
+          <t>word/worden0821.png</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>image/True/img55.png</t>
+          <t>image/True/img82.png</t>
         </is>
       </c>
     </row>
@@ -1578,19 +1578,19 @@
         <v>2</v>
       </c>
       <c r="B55" t="n">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>word/worden0231.png</t>
+          <t>word/worden0881.png</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>image/True/img23.png</t>
+          <t>image/False/imgf88.png</t>
         </is>
       </c>
     </row>
@@ -1599,19 +1599,19 @@
         <v>2</v>
       </c>
       <c r="B56" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>word/worden0561.png</t>
+          <t>word/worden0081.png</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>image/False/imgf56.png</t>
+          <t>image/True/img08.png</t>
         </is>
       </c>
     </row>
@@ -1620,19 +1620,19 @@
         <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>word/worden0701.png</t>
+          <t>word/worden0161.png</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>image/False/imgf70.png</t>
+          <t>image/False/imgf16.png</t>
         </is>
       </c>
     </row>
@@ -1641,19 +1641,19 @@
         <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>word/worden0521.png</t>
+          <t>word/worden0101.png</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>image/True/img52.png</t>
+          <t>image/False/imgf10.png</t>
         </is>
       </c>
     </row>
@@ -1662,19 +1662,19 @@
         <v>2</v>
       </c>
       <c r="B59" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>word/worden0171.png</t>
+          <t>word/worden0761.png</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>image/True/img17.png</t>
+          <t>image/False/imgf76.png</t>
         </is>
       </c>
     </row>
@@ -1683,19 +1683,19 @@
         <v>2</v>
       </c>
       <c r="B60" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>word/worden0371.png</t>
+          <t>word/worden0421.png</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>image/False/imgf37.png</t>
+          <t>image/True/img42.png</t>
         </is>
       </c>
     </row>
@@ -1704,19 +1704,19 @@
         <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>word/worden0161.png</t>
+          <t>word/worden0261.png</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>image/True/img16.png</t>
+          <t>image/False/imgf26.png</t>
         </is>
       </c>
     </row>
@@ -1725,19 +1725,19 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>word/worden0081.png</t>
+          <t>word/worden0261.png</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>image/False/imgf08.png</t>
+          <t>image/True/img26.png</t>
         </is>
       </c>
     </row>
@@ -1746,19 +1746,19 @@
         <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>word/worden0101.png</t>
+          <t>word/worden0481.png</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>image/True/img10.png</t>
+          <t>image/True/img48.png</t>
         </is>
       </c>
     </row>
@@ -1767,19 +1767,19 @@
         <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>word/worden0631.png</t>
+          <t>word/worden0711.png</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>image/False/imgf63.png</t>
+          <t>image/False/imgf71.png</t>
         </is>
       </c>
     </row>
@@ -1788,19 +1788,19 @@
         <v>2</v>
       </c>
       <c r="B65" t="n">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>word/worden0271.png</t>
+          <t>word/worden0931.png</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>image/False/imgf27.png</t>
+          <t>image/True/img93.png</t>
         </is>
       </c>
     </row>
@@ -1809,19 +1809,19 @@
         <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>word/worden0301.png</t>
+          <t>word/worden0511.png</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>image/False/imgf30.png</t>
+          <t>image/True/img51.png</t>
         </is>
       </c>
     </row>
@@ -1830,19 +1830,19 @@
         <v>2</v>
       </c>
       <c r="B67" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>word/worden0821.png</t>
+          <t>word/worden0781.png</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>image/True/img82.png</t>
+          <t>image/False/imgf78.png</t>
         </is>
       </c>
     </row>
@@ -1851,19 +1851,19 @@
         <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>word/worden0241.png</t>
+          <t>word/worden0641.png</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>image/False/imgf24.png</t>
+          <t>image/False/imgf64.png</t>
         </is>
       </c>
     </row>
@@ -1872,19 +1872,19 @@
         <v>2</v>
       </c>
       <c r="B69" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>word/worden0271.png</t>
+          <t>word/worden0681.png</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>image/True/img27.png</t>
+          <t>image/True/img68.png</t>
         </is>
       </c>
     </row>
@@ -1893,19 +1893,19 @@
         <v>2</v>
       </c>
       <c r="B70" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>word/worden0821.png</t>
+          <t>word/worden0571.png</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>image/True/img82.png</t>
+          <t>image/False/imgf57.png</t>
         </is>
       </c>
     </row>
@@ -1914,19 +1914,19 @@
         <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>word/worden0551.png</t>
+          <t>word/worden0311.png</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>image/False/imgf55.png</t>
+          <t>image/False/imgf31.png</t>
         </is>
       </c>
     </row>
@@ -1935,19 +1935,19 @@
         <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>word/worden0761.png</t>
+          <t>word/worden0311.png</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>image/False/imgf76.png</t>
+          <t>image/False/imgf31.png</t>
         </is>
       </c>
     </row>
@@ -1956,19 +1956,19 @@
         <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>word/worden0171.png</t>
+          <t>word/worden0551.png</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>image/False/imgf17.png</t>
+          <t>image/True/img55.png</t>
         </is>
       </c>
     </row>
@@ -1977,19 +1977,19 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>word/worden0331.png</t>
+          <t>word/worden0361.png</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>image/False/imgf33.png</t>
+          <t>image/True/img36.png</t>
         </is>
       </c>
     </row>
@@ -1998,19 +1998,19 @@
         <v>2</v>
       </c>
       <c r="B75" t="n">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>word/worden0881.png</t>
+          <t>word/worden0081.png</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>image/True/img88.png</t>
+          <t>image/False/imgf08.png</t>
         </is>
       </c>
     </row>
@@ -2019,19 +2019,19 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>word/worden0361.png</t>
+          <t>word/worden0821.png</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>image/True/img36.png</t>
+          <t>image/False/imgf82.png</t>
         </is>
       </c>
     </row>
@@ -2040,19 +2040,19 @@
         <v>2</v>
       </c>
       <c r="B77" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>word/worden0601.png</t>
+          <t>word/worden0141.png</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>image/True/img60.png</t>
+          <t>image/False/imgf14.png</t>
         </is>
       </c>
     </row>
@@ -2061,19 +2061,19 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>word/worden0601.png</t>
+          <t>word/worden0711.png</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>image/False/imgf60.png</t>
+          <t>image/True/img71.png</t>
         </is>
       </c>
     </row>
@@ -2082,19 +2082,19 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>word/worden0011.png</t>
+          <t>word/worden0221.png</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>image/True/img01.png</t>
+          <t>image/False/imgf22.png</t>
         </is>
       </c>
     </row>
@@ -2103,19 +2103,19 @@
         <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>word/worden0221.png</t>
+          <t>word/worden0781.png</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>image/True/img22.png</t>
+          <t>image/True/img78.png</t>
         </is>
       </c>
     </row>
@@ -2124,19 +2124,19 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>word/worden0541.png</t>
+          <t>word/worden0511.png</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>image/False/imgf54.png</t>
+          <t>image/False/imgf51.png</t>
         </is>
       </c>
     </row>
@@ -2145,19 +2145,19 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>word/worden0881.png</t>
+          <t>word/worden0561.png</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>image/False/imgf88.png</t>
+          <t>image/True/img56.png</t>
         </is>
       </c>
     </row>
@@ -2166,19 +2166,19 @@
         <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>word/worden0541.png</t>
+          <t>word/worden0601.png</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>image/True/img54.png</t>
+          <t>image/True/img60.png</t>
         </is>
       </c>
     </row>
@@ -2187,19 +2187,19 @@
         <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>word/worden0941.png</t>
+          <t>word/worden0961.png</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>image/False/imgf94.png</t>
+          <t>image/False/imgf96.png</t>
         </is>
       </c>
     </row>
@@ -2208,19 +2208,19 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>word/worden0011.png</t>
+          <t>word/worden0031.png</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>image/False/imgf01.png</t>
+          <t>image/False/imgf03.png</t>
         </is>
       </c>
     </row>
@@ -2229,19 +2229,19 @@
         <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>word/worden0281.png</t>
+          <t>word/worden0551.png</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>image/True/img28.png</t>
+          <t>image/False/imgf55.png</t>
         </is>
       </c>
     </row>
@@ -2250,19 +2250,19 @@
         <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>word/worden0201.png</t>
+          <t>word/worden0711.png</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>image/True/img20.png</t>
+          <t>image/True/img71.png</t>
         </is>
       </c>
     </row>
@@ -2271,19 +2271,19 @@
         <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>word/worden0181.png</t>
+          <t>word/worden0031.png</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>image/True/img18.png</t>
+          <t>image/True/img03.png</t>
         </is>
       </c>
     </row>
@@ -2292,19 +2292,19 @@
         <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>word/worden0301.png</t>
+          <t>word/worden0521.png</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>image/False/imgf30.png</t>
+          <t>image/True/img52.png</t>
         </is>
       </c>
     </row>
@@ -2313,19 +2313,19 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>word/worden0361.png</t>
+          <t>word/worden0951.png</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>image/False/imgf36.png</t>
+          <t>image/False/imgf95.png</t>
         </is>
       </c>
     </row>
@@ -2334,19 +2334,19 @@
         <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>word/worden0681.png</t>
+          <t>word/worden0061.png</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>image/False/imgf68.png</t>
+          <t>image/False/imgf06.png</t>
         </is>
       </c>
     </row>
@@ -2355,19 +2355,19 @@
         <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>word/worden0571.png</t>
+          <t>word/worden0791.png</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>image/True/img57.png</t>
+          <t>image/True/img79.png</t>
         </is>
       </c>
     </row>
@@ -2376,19 +2376,19 @@
         <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>word/worden0601.png</t>
+          <t>word/worden0611.png</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>image/False/imgf60.png</t>
+          <t>image/False/imgf61.png</t>
         </is>
       </c>
     </row>
@@ -2397,19 +2397,19 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>word/worden0181.png</t>
+          <t>word/worden0461.png</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>image/False/imgf18.png</t>
+          <t>image/False/imgf46.png</t>
         </is>
       </c>
     </row>
@@ -2418,19 +2418,19 @@
         <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>word/worden0461.png</t>
+          <t>word/worden0891.png</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>image/False/imgf46.png</t>
+          <t>image/True/img89.png</t>
         </is>
       </c>
     </row>
@@ -2439,19 +2439,19 @@
         <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>word/worden0821.png</t>
+          <t>word/worden0261.png</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>image/False/imgf82.png</t>
+          <t>image/False/imgf26.png</t>
         </is>
       </c>
     </row>
@@ -2460,19 +2460,19 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>word/worden0541.png</t>
+          <t>word/worden0441.png</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>image/True/img54.png</t>
+          <t>image/False/imgf44.png</t>
         </is>
       </c>
     </row>
@@ -2481,19 +2481,19 @@
         <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>word/worden0281.png</t>
+          <t>word/worden0821.png</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>image/False/imgf28.png</t>
+          <t>image/True/img82.png</t>
         </is>
       </c>
     </row>
@@ -2502,19 +2502,19 @@
         <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>word/worden0061.png</t>
+          <t>word/worden0161.png</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>image/True/img06.png</t>
+          <t>image/True/img16.png</t>
         </is>
       </c>
     </row>
@@ -2523,19 +2523,19 @@
         <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>word/worden0111.png</t>
+          <t>word/worden0201.png</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>image/True/img11.png</t>
+          <t>image/True/img20.png</t>
         </is>
       </c>
     </row>
@@ -2544,19 +2544,19 @@
         <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>word/worden0091.png</t>
+          <t>word/worden0201.png</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>image/False/imgf09.png</t>
+          <t>image/True/img20.png</t>
         </is>
       </c>
     </row>
@@ -2565,19 +2565,19 @@
         <v>2</v>
       </c>
       <c r="B102" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>word/worden0701.png</t>
+          <t>word/worden0961.png</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>image/True/img70.png</t>
+          <t>image/True/img96.png</t>
         </is>
       </c>
     </row>
@@ -2586,19 +2586,19 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>word/worden0511.png</t>
+          <t>word/worden0641.png</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>image/False/imgf51.png</t>
+          <t>image/True/img64.png</t>
         </is>
       </c>
     </row>
@@ -2607,19 +2607,19 @@
         <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>word/worden0641.png</t>
+          <t>word/worden0781.png</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>image/False/imgf64.png</t>
+          <t>image/False/imgf78.png</t>
         </is>
       </c>
     </row>
@@ -2628,19 +2628,19 @@
         <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>word/worden0461.png</t>
+          <t>word/worden0201.png</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>image/False/imgf46.png</t>
+          <t>image/False/imgf20.png</t>
         </is>
       </c>
     </row>
@@ -2649,19 +2649,19 @@
         <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>word/worden0331.png</t>
+          <t>word/worden0891.png</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>image/True/img33.png</t>
+          <t>image/True/img89.png</t>
         </is>
       </c>
     </row>
@@ -2670,19 +2670,19 @@
         <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>word/worden0101.png</t>
+          <t>word/worden0591.png</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>image/False/imgf10.png</t>
+          <t>image/False/imgf59.png</t>
         </is>
       </c>
     </row>
@@ -2691,19 +2691,19 @@
         <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>word/worden0071.png</t>
+          <t>word/worden0241.png</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>image/False/imgf07.png</t>
+          <t>image/False/imgf24.png</t>
         </is>
       </c>
     </row>
@@ -2712,19 +2712,19 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>word/worden0681.png</t>
+          <t>word/worden0281.png</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>image/False/imgf68.png</t>
+          <t>image/False/imgf28.png</t>
         </is>
       </c>
     </row>
@@ -2733,19 +2733,19 @@
         <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>word/worden0931.png</t>
+          <t>word/worden0151.png</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>image/True/img93.png</t>
+          <t>image/False/imgf15.png</t>
         </is>
       </c>
     </row>
@@ -2754,19 +2754,19 @@
         <v>2</v>
       </c>
       <c r="B111" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>word/worden0031.png</t>
+          <t>word/worden0301.png</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>image/False/imgf03.png</t>
+          <t>image/True/img30.png</t>
         </is>
       </c>
     </row>
@@ -2775,19 +2775,19 @@
         <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>word/worden0361.png</t>
+          <t>word/worden0641.png</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>image/True/img36.png</t>
+          <t>image/True/img64.png</t>
         </is>
       </c>
     </row>
@@ -2796,19 +2796,19 @@
         <v>2</v>
       </c>
       <c r="B113" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>word/worden0381.png</t>
+          <t>word/worden0521.png</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>image/True/img38.png</t>
+          <t>image/False/imgf52.png</t>
         </is>
       </c>
     </row>
@@ -2817,19 +2817,19 @@
         <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>word/worden0171.png</t>
+          <t>word/worden0331.png</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>image/True/img17.png</t>
+          <t>image/True/img33.png</t>
         </is>
       </c>
     </row>
@@ -2838,19 +2838,19 @@
         <v>2</v>
       </c>
       <c r="B115" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>word/worden0611.png</t>
+          <t>word/worden0231.png</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>image/False/imgf61.png</t>
+          <t>image/True/img23.png</t>
         </is>
       </c>
     </row>
@@ -2859,19 +2859,19 @@
         <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>word/worden0891.png</t>
+          <t>word/worden0111.png</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>image/True/img89.png</t>
+          <t>image/True/img11.png</t>
         </is>
       </c>
     </row>
@@ -2880,19 +2880,19 @@
         <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>word/worden0311.png</t>
+          <t>word/worden0221.png</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>image/True/img31.png</t>
+          <t>image/True/img22.png</t>
         </is>
       </c>
     </row>
@@ -2901,19 +2901,19 @@
         <v>2</v>
       </c>
       <c r="B118" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>word/worden0461.png</t>
+          <t>word/worden0371.png</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>image/True/img46.png</t>
+          <t>image/False/imgf37.png</t>
         </is>
       </c>
     </row>
@@ -2922,19 +2922,19 @@
         <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>word/worden0441.png</t>
+          <t>word/worden0791.png</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>image/True/img44.png</t>
+          <t>image/False/imgf79.png</t>
         </is>
       </c>
     </row>
@@ -2943,19 +2943,19 @@
         <v>2</v>
       </c>
       <c r="B120" t="n">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>word/worden0931.png</t>
+          <t>word/worden0561.png</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>image/True/img93.png</t>
+          <t>image/True/img56.png</t>
         </is>
       </c>
     </row>
@@ -2964,19 +2964,19 @@
         <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>word/worden0791.png</t>
+          <t>word/worden0681.png</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>image/True/img79.png</t>
+          <t>image/True/img68.png</t>
         </is>
       </c>
     </row>
@@ -2985,19 +2985,19 @@
         <v>2</v>
       </c>
       <c r="B122" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>word/worden0081.png</t>
+          <t>word/worden0271.png</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>image/True/img08.png</t>
+          <t>image/False/imgf27.png</t>
         </is>
       </c>
     </row>
@@ -3006,19 +3006,19 @@
         <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>word/worden0751.png</t>
+          <t>word/worden0031.png</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>image/True/img75.png</t>
+          <t>image/True/img03.png</t>
         </is>
       </c>
     </row>
@@ -3027,19 +3027,19 @@
         <v>2</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>word/worden0011.png</t>
+          <t>word/worden0381.png</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>image/False/imgf01.png</t>
+          <t>image/False/imgf38.png</t>
         </is>
       </c>
     </row>
@@ -3069,19 +3069,19 @@
         <v>2</v>
       </c>
       <c r="B126" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>word/worden0521.png</t>
+          <t>word/worden0181.png</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>image/False/imgf52.png</t>
+          <t>image/True/img18.png</t>
         </is>
       </c>
     </row>
@@ -3090,19 +3090,19 @@
         <v>2</v>
       </c>
       <c r="B127" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>word/worden0871.png</t>
+          <t>word/worden0601.png</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>image/False/imgf87.png</t>
+          <t>image/True/img60.png</t>
         </is>
       </c>
     </row>
@@ -3111,19 +3111,19 @@
         <v>2</v>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>word/worden0031.png</t>
+          <t>word/worden0091.png</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>image/True/img03.png</t>
+          <t>image/True/img09.png</t>
         </is>
       </c>
     </row>
@@ -3132,19 +3132,19 @@
         <v>2</v>
       </c>
       <c r="B129" t="n">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>word/worden0881.png</t>
+          <t>word/worden0091.png</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>image/False/imgf88.png</t>
+          <t>image/False/imgf09.png</t>
         </is>
       </c>
     </row>
@@ -3153,19 +3153,19 @@
         <v>2</v>
       </c>
       <c r="B130" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>word/worden0631.png</t>
+          <t>word/worden0941.png</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>image/True/img63.png</t>
+          <t>image/False/imgf94.png</t>
         </is>
       </c>
     </row>
@@ -3174,19 +3174,19 @@
         <v>2</v>
       </c>
       <c r="B131" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>word/worden0221.png</t>
+          <t>word/worden0661.png</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>image/False/imgf22.png</t>
+          <t>image/True/img66.png</t>
         </is>
       </c>
     </row>
@@ -3195,19 +3195,19 @@
         <v>2</v>
       </c>
       <c r="B132" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>word/worden0601.png</t>
+          <t>word/worden0011.png</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>image/True/img60.png</t>
+          <t>image/False/imgf01.png</t>
         </is>
       </c>
     </row>
@@ -3216,19 +3216,19 @@
         <v>2</v>
       </c>
       <c r="B133" t="n">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>word/worden0241.png</t>
+          <t>word/worden0891.png</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>image/False/imgf24.png</t>
+          <t>image/False/imgf89.png</t>
         </is>
       </c>
     </row>
@@ -3237,19 +3237,19 @@
         <v>2</v>
       </c>
       <c r="B134" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>word/worden0591.png</t>
+          <t>word/worden0481.png</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>image/False/imgf59.png</t>
+          <t>image/True/img48.png</t>
         </is>
       </c>
     </row>
@@ -3258,19 +3258,19 @@
         <v>2</v>
       </c>
       <c r="B135" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>word/worden0301.png</t>
+          <t>word/worden0631.png</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>image/True/img30.png</t>
+          <t>image/False/imgf63.png</t>
         </is>
       </c>
     </row>
@@ -3279,19 +3279,19 @@
         <v>2</v>
       </c>
       <c r="B136" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>word/worden0711.png</t>
+          <t>word/worden0231.png</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>image/False/imgf71.png</t>
+          <t>image/True/img23.png</t>
         </is>
       </c>
     </row>
@@ -3300,19 +3300,19 @@
         <v>2</v>
       </c>
       <c r="B137" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>word/worden0161.png</t>
+          <t>word/worden0401.png</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>image/False/imgf16.png</t>
+          <t>image/False/imgf40.png</t>
         </is>
       </c>
     </row>
@@ -3321,19 +3321,19 @@
         <v>2</v>
       </c>
       <c r="B138" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>word/worden0111.png</t>
+          <t>word/worden0521.png</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>image/False/imgf11.png</t>
+          <t>image/True/img52.png</t>
         </is>
       </c>
     </row>
@@ -3342,19 +3342,19 @@
         <v>2</v>
       </c>
       <c r="B139" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>word/worden0141.png</t>
+          <t>word/worden0301.png</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>image/True/img14.png</t>
+          <t>image/True/img30.png</t>
         </is>
       </c>
     </row>
@@ -3363,19 +3363,19 @@
         <v>2</v>
       </c>
       <c r="B140" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>word/worden0751.png</t>
+          <t>word/worden0151.png</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>image/True/img75.png</t>
+          <t>image/True/img15.png</t>
         </is>
       </c>
     </row>
@@ -3384,19 +3384,19 @@
         <v>2</v>
       </c>
       <c r="B141" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>word/worden0401.png</t>
+          <t>word/worden0461.png</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>image/True/img40.png</t>
+          <t>image/True/img46.png</t>
         </is>
       </c>
     </row>
@@ -3405,19 +3405,19 @@
         <v>2</v>
       </c>
       <c r="B142" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>word/worden0501.png</t>
+          <t>word/worden0141.png</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>image/False/imgf50.png</t>
+          <t>image/True/img14.png</t>
         </is>
       </c>
     </row>
@@ -3426,19 +3426,19 @@
         <v>2</v>
       </c>
       <c r="B143" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>word/worden0241.png</t>
+          <t>word/worden0661.png</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>image/True/img24.png</t>
+          <t>image/False/imgf66.png</t>
         </is>
       </c>
     </row>
@@ -3447,19 +3447,19 @@
         <v>2</v>
       </c>
       <c r="B144" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>word/worden0401.png</t>
+          <t>word/worden0461.png</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>image/False/imgf40.png</t>
+          <t>image/False/imgf46.png</t>
         </is>
       </c>
     </row>
@@ -3468,19 +3468,19 @@
         <v>2</v>
       </c>
       <c r="B145" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>word/worden0421.png</t>
+          <t>word/worden0181.png</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>image/False/imgf42.png</t>
+          <t>image/True/img18.png</t>
         </is>
       </c>
     </row>
@@ -3489,19 +3489,19 @@
         <v>2</v>
       </c>
       <c r="B146" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>word/worden0481.png</t>
+          <t>word/worden0511.png</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>image/True/img48.png</t>
+          <t>image/False/imgf51.png</t>
         </is>
       </c>
     </row>
@@ -3510,19 +3510,19 @@
         <v>2</v>
       </c>
       <c r="B147" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>word/worden0941.png</t>
+          <t>word/worden0761.png</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>image/True/img94.png</t>
+          <t>image/True/img76.png</t>
         </is>
       </c>
     </row>
@@ -3531,19 +3531,19 @@
         <v>2</v>
       </c>
       <c r="B148" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>word/worden0481.png</t>
+          <t>word/worden0571.png</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>image/True/img48.png</t>
+          <t>image/True/img57.png</t>
         </is>
       </c>
     </row>
@@ -3552,19 +3552,19 @@
         <v>2</v>
       </c>
       <c r="B149" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>word/worden0411.png</t>
+          <t>word/worden0481.png</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>image/False/imgf41.png</t>
+          <t>image/False/imgf48.png</t>
         </is>
       </c>
     </row>
@@ -3573,19 +3573,19 @@
         <v>2</v>
       </c>
       <c r="B150" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>word/worden0951.png</t>
+          <t>word/worden0371.png</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>image/False/imgf95.png</t>
+          <t>image/False/imgf37.png</t>
         </is>
       </c>
     </row>
@@ -3594,19 +3594,19 @@
         <v>2</v>
       </c>
       <c r="B151" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>word/worden0561.png</t>
+          <t>word/worden0601.png</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>image/False/imgf56.png</t>
+          <t>image/False/imgf60.png</t>
         </is>
       </c>
     </row>
@@ -3615,19 +3615,19 @@
         <v>2</v>
       </c>
       <c r="B152" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>word/worden0661.png</t>
+          <t>word/worden0241.png</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>image/True/img66.png</t>
+          <t>image/True/img24.png</t>
         </is>
       </c>
     </row>
@@ -3636,19 +3636,19 @@
         <v>2</v>
       </c>
       <c r="B153" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>word/worden0411.png</t>
+          <t>word/worden0401.png</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>image/False/imgf41.png</t>
+          <t>image/True/img40.png</t>
         </is>
       </c>
     </row>
@@ -3657,19 +3657,19 @@
         <v>2</v>
       </c>
       <c r="B154" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>word/worden0511.png</t>
+          <t>word/worden0541.png</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>image/False/imgf51.png</t>
+          <t>image/True/img54.png</t>
         </is>
       </c>
     </row>
@@ -3678,19 +3678,19 @@
         <v>2</v>
       </c>
       <c r="B155" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>word/worden0181.png</t>
+          <t>word/worden0441.png</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>image/True/img18.png</t>
+          <t>image/False/imgf44.png</t>
         </is>
       </c>
     </row>
@@ -3699,19 +3699,19 @@
         <v>2</v>
       </c>
       <c r="B156" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>word/worden0631.png</t>
+          <t>word/worden0791.png</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>image/True/img63.png</t>
+          <t>image/True/img79.png</t>
         </is>
       </c>
     </row>
@@ -3720,19 +3720,19 @@
         <v>2</v>
       </c>
       <c r="B157" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>word/worden0201.png</t>
+          <t>word/worden0951.png</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>image/False/imgf20.png</t>
+          <t>image/True/img95.png</t>
         </is>
       </c>
     </row>
@@ -3741,19 +3741,19 @@
         <v>2</v>
       </c>
       <c r="B158" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>word/worden0171.png</t>
+          <t>word/worden0371.png</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>image/False/imgf17.png</t>
+          <t>image/True/img37.png</t>
         </is>
       </c>
     </row>
@@ -3762,19 +3762,19 @@
         <v>2</v>
       </c>
       <c r="B159" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>word/worden0961.png</t>
+          <t>word/worden0701.png</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>image/False/imgf96.png</t>
+          <t>image/True/img70.png</t>
         </is>
       </c>
     </row>
@@ -3783,19 +3783,19 @@
         <v>2</v>
       </c>
       <c r="B160" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>word/worden0711.png</t>
+          <t>word/worden0401.png</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>image/False/imgf71.png</t>
+          <t>image/True/img40.png</t>
         </is>
       </c>
     </row>
@@ -3804,19 +3804,19 @@
         <v>2</v>
       </c>
       <c r="B161" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>word/worden0091.png</t>
+          <t>word/worden0301.png</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>image/True/img09.png</t>
+          <t>image/False/imgf30.png</t>
         </is>
       </c>
     </row>
@@ -3825,19 +3825,19 @@
         <v>2</v>
       </c>
       <c r="B162" t="n">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>word/worden0281.png</t>
+          <t>word/worden0881.png</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>image/True/img28.png</t>
+          <t>image/True/img88.png</t>
         </is>
       </c>
     </row>
@@ -3846,19 +3846,19 @@
         <v>2</v>
       </c>
       <c r="B163" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>word/worden0661.png</t>
+          <t>word/worden0151.png</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>image/False/imgf66.png</t>
+          <t>image/True/img15.png</t>
         </is>
       </c>
     </row>
@@ -3867,19 +3867,19 @@
         <v>2</v>
       </c>
       <c r="B164" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>word/worden0441.png</t>
+          <t>word/worden0541.png</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>image/False/imgf44.png</t>
+          <t>image/True/img54.png</t>
         </is>
       </c>
     </row>
@@ -3888,19 +3888,19 @@
         <v>2</v>
       </c>
       <c r="B165" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>word/worden0661.png</t>
+          <t>word/worden0111.png</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>image/False/imgf66.png</t>
+          <t>image/False/imgf11.png</t>
         </is>
       </c>
     </row>
@@ -3909,19 +3909,19 @@
         <v>2</v>
       </c>
       <c r="B166" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>word/worden0411.png</t>
+          <t>word/worden0161.png</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>image/True/img41.png</t>
+          <t>image/True/img16.png</t>
         </is>
       </c>
     </row>
@@ -3930,19 +3930,19 @@
         <v>2</v>
       </c>
       <c r="B167" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>word/worden0381.png</t>
+          <t>word/worden0011.png</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>image/False/imgf38.png</t>
+          <t>image/True/img01.png</t>
         </is>
       </c>
     </row>
@@ -3951,19 +3951,19 @@
         <v>2</v>
       </c>
       <c r="B168" t="n">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>word/worden0881.png</t>
+          <t>word/worden0221.png</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>image/True/img88.png</t>
+          <t>image/False/imgf22.png</t>
         </is>
       </c>
     </row>
@@ -3972,19 +3972,19 @@
         <v>2</v>
       </c>
       <c r="B169" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>word/worden0271.png</t>
+          <t>word/worden0631.png</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>image/True/img27.png</t>
+          <t>image/True/img63.png</t>
         </is>
       </c>
     </row>
@@ -3993,19 +3993,19 @@
         <v>2</v>
       </c>
       <c r="B170" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>word/worden0701.png</t>
+          <t>word/worden0871.png</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>image/False/imgf70.png</t>
+          <t>image/True/img87.png</t>
         </is>
       </c>
     </row>
@@ -4014,19 +4014,19 @@
         <v>2</v>
       </c>
       <c r="B171" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>word/worden0521.png</t>
+          <t>word/worden0571.png</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>image/True/img52.png</t>
+          <t>image/False/imgf57.png</t>
         </is>
       </c>
     </row>
@@ -4056,19 +4056,19 @@
         <v>2</v>
       </c>
       <c r="B173" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>word/worden0751.png</t>
+          <t>word/worden0931.png</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>image/False/imgf75.png</t>
+          <t>image/False/imgf93.png</t>
         </is>
       </c>
     </row>
@@ -4077,19 +4077,19 @@
         <v>2</v>
       </c>
       <c r="B174" t="n">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>word/worden0941.png</t>
+          <t>word/worden0611.png</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>image/True/img94.png</t>
+          <t>image/True/img61.png</t>
         </is>
       </c>
     </row>
@@ -4098,19 +4098,19 @@
         <v>2</v>
       </c>
       <c r="B175" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>word/worden0571.png</t>
+          <t>word/worden0281.png</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>image/False/imgf57.png</t>
+          <t>image/True/img28.png</t>
         </is>
       </c>
     </row>
@@ -4119,19 +4119,19 @@
         <v>2</v>
       </c>
       <c r="B176" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>word/worden0421.png</t>
+          <t>word/worden0461.png</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>image/False/imgf42.png</t>
+          <t>image/True/img46.png</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
         <v>22</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>image/False/imgf22.png</t>
+          <t>image/True/img22.png</t>
         </is>
       </c>
     </row>
@@ -4161,19 +4161,19 @@
         <v>2</v>
       </c>
       <c r="B178" t="n">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>word/worden0141.png</t>
+          <t>word/worden0931.png</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>image/False/imgf14.png</t>
+          <t>image/True/img93.png</t>
         </is>
       </c>
     </row>
@@ -4182,19 +4182,19 @@
         <v>2</v>
       </c>
       <c r="B179" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>word/worden0461.png</t>
+          <t>word/worden0951.png</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>image/True/img46.png</t>
+          <t>image/True/img95.png</t>
         </is>
       </c>
     </row>
@@ -4203,19 +4203,19 @@
         <v>2</v>
       </c>
       <c r="B180" t="n">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>word/worden0871.png</t>
+          <t>word/worden0171.png</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>image/False/imgf87.png</t>
+          <t>image/False/imgf17.png</t>
         </is>
       </c>
     </row>
@@ -4224,19 +4224,19 @@
         <v>2</v>
       </c>
       <c r="B181" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>word/worden0441.png</t>
+          <t>word/worden0261.png</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>image/False/imgf44.png</t>
+          <t>image/True/img26.png</t>
         </is>
       </c>
     </row>
@@ -4245,19 +4245,19 @@
         <v>2</v>
       </c>
       <c r="B182" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>word/worden0091.png</t>
+          <t>word/worden0271.png</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>image/True/img09.png</t>
+          <t>image/True/img27.png</t>
         </is>
       </c>
     </row>
@@ -4266,19 +4266,19 @@
         <v>2</v>
       </c>
       <c r="B183" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>word/worden0501.png</t>
+          <t>word/worden0311.png</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>image/False/imgf50.png</t>
+          <t>image/True/img31.png</t>
         </is>
       </c>
     </row>
@@ -4287,19 +4287,19 @@
         <v>2</v>
       </c>
       <c r="B184" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>word/worden0261.png</t>
+          <t>word/worden0331.png</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>image/True/img26.png</t>
+          <t>image/False/imgf33.png</t>
         </is>
       </c>
     </row>
@@ -4308,19 +4308,19 @@
         <v>2</v>
       </c>
       <c r="B185" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>word/worden0891.png</t>
+          <t>word/worden0591.png</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>image/False/imgf89.png</t>
+          <t>image/True/img59.png</t>
         </is>
       </c>
     </row>
@@ -4329,19 +4329,19 @@
         <v>2</v>
       </c>
       <c r="B186" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>word/worden0421.png</t>
+          <t>word/worden0081.png</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>image/True/img42.png</t>
+          <t>image/True/img08.png</t>
         </is>
       </c>
     </row>
@@ -4350,19 +4350,19 @@
         <v>2</v>
       </c>
       <c r="B187" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>word/worden0261.png</t>
+          <t>word/worden0631.png</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>image/False/imgf26.png</t>
+          <t>image/False/imgf63.png</t>
         </is>
       </c>
     </row>
@@ -4371,19 +4371,19 @@
         <v>2</v>
       </c>
       <c r="B188" t="n">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>word/worden0791.png</t>
+          <t>word/worden0301.png</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>image/False/imgf79.png</t>
+          <t>image/False/imgf30.png</t>
         </is>
       </c>
     </row>
@@ -4392,19 +4392,19 @@
         <v>2</v>
       </c>
       <c r="B189" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>word/worden0261.png</t>
+          <t>word/worden0151.png</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>image/True/img26.png</t>
+          <t>image/False/imgf15.png</t>
         </is>
       </c>
     </row>
@@ -4413,19 +4413,19 @@
         <v>2</v>
       </c>
       <c r="B190" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>word/worden0761.png</t>
+          <t>word/worden0711.png</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>image/True/img76.png</t>
+          <t>image/False/imgf71.png</t>
         </is>
       </c>
     </row>
@@ -4434,19 +4434,19 @@
         <v>2</v>
       </c>
       <c r="B191" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>word/worden0331.png</t>
+          <t>word/worden0101.png</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>image/False/imgf33.png</t>
+          <t>image/False/imgf10.png</t>
         </is>
       </c>
     </row>
@@ -4455,19 +4455,19 @@
         <v>2</v>
       </c>
       <c r="B192" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>word/worden0151.png</t>
+          <t>word/worden0541.png</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>image/False/imgf15.png</t>
+          <t>image/False/imgf54.png</t>
         </is>
       </c>
     </row>
@@ -4476,19 +4476,19 @@
         <v>2</v>
       </c>
       <c r="B193" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>word/worden0161.png</t>
+          <t>word/worden0601.png</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>image/True/img16.png</t>
+          <t>image/False/imgf60.png</t>
         </is>
       </c>
     </row>
@@ -4497,19 +4497,19 @@
         <v>2</v>
       </c>
       <c r="B194" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>word/worden0371.png</t>
+          <t>word/worden0161.png</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>image/True/img37.png</t>
+          <t>image/False/imgf16.png</t>
         </is>
       </c>
     </row>
@@ -4539,19 +4539,19 @@
         <v>2</v>
       </c>
       <c r="B196" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>word/worden0111.png</t>
+          <t>word/worden0631.png</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>image/True/img11.png</t>
+          <t>image/True/img63.png</t>
         </is>
       </c>
     </row>
@@ -4560,19 +4560,19 @@
         <v>2</v>
       </c>
       <c r="B197" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>word/worden0261.png</t>
+          <t>word/worden0241.png</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>image/False/imgf26.png</t>
+          <t>image/False/imgf24.png</t>
         </is>
       </c>
     </row>
@@ -4581,19 +4581,19 @@
         <v>2</v>
       </c>
       <c r="B198" t="n">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>word/worden0031.png</t>
+          <t>word/worden0891.png</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>image/True/img03.png</t>
+          <t>image/False/imgf89.png</t>
         </is>
       </c>
     </row>
@@ -4602,19 +4602,19 @@
         <v>2</v>
       </c>
       <c r="B199" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>word/worden0571.png</t>
+          <t>word/worden0061.png</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>image/True/img57.png</t>
+          <t>image/False/imgf06.png</t>
         </is>
       </c>
     </row>
@@ -4623,19 +4623,19 @@
         <v>2</v>
       </c>
       <c r="B200" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>word/worden0201.png</t>
+          <t>word/worden0411.png</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>image/False/imgf20.png</t>
+          <t>image/False/imgf41.png</t>
         </is>
       </c>
     </row>
@@ -4644,19 +4644,19 @@
         <v>2</v>
       </c>
       <c r="B201" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>word/worden0821.png</t>
+          <t>word/worden0791.png</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>image/False/imgf82.png</t>
+          <t>image/False/imgf79.png</t>
         </is>
       </c>
     </row>
@@ -4665,19 +4665,19 @@
         <v>2</v>
       </c>
       <c r="B202" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>word/worden0271.png</t>
+          <t>word/worden0701.png</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>image/False/imgf27.png</t>
+          <t>image/True/img70.png</t>
         </is>
       </c>
     </row>
@@ -4686,19 +4686,19 @@
         <v>2</v>
       </c>
       <c r="B203" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>word/worden0781.png</t>
+          <t>word/worden0311.png</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>image/True/img78.png</t>
+          <t>image/True/img31.png</t>
         </is>
       </c>
     </row>
@@ -4707,19 +4707,19 @@
         <v>2</v>
       </c>
       <c r="B204" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>word/worden0501.png</t>
+          <t>word/worden0091.png</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>image/True/img50.png</t>
+          <t>image/True/img09.png</t>
         </is>
       </c>
     </row>
@@ -4728,19 +4728,19 @@
         <v>2</v>
       </c>
       <c r="B205" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>word/worden0101.png</t>
+          <t>word/worden0271.png</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>image/True/img10.png</t>
+          <t>image/True/img27.png</t>
         </is>
       </c>
     </row>
@@ -4749,19 +4749,19 @@
         <v>2</v>
       </c>
       <c r="B206" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>word/worden0311.png</t>
+          <t>word/worden0751.png</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>image/False/imgf31.png</t>
+          <t>image/False/imgf75.png</t>
         </is>
       </c>
     </row>
@@ -4770,19 +4770,19 @@
         <v>2</v>
       </c>
       <c r="B207" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>word/worden0331.png</t>
+          <t>word/worden0871.png</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>image/True/img33.png</t>
+          <t>image/False/imgf87.png</t>
         </is>
       </c>
     </row>
@@ -4791,19 +4791,19 @@
         <v>2</v>
       </c>
       <c r="B208" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>word/worden0571.png</t>
+          <t>word/worden0081.png</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>image/False/imgf57.png</t>
+          <t>image/False/imgf08.png</t>
         </is>
       </c>
     </row>
@@ -4812,19 +4812,19 @@
         <v>2</v>
       </c>
       <c r="B209" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>word/worden0091.png</t>
+          <t>word/worden0241.png</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>image/False/imgf09.png</t>
+          <t>image/True/img24.png</t>
         </is>
       </c>
     </row>
@@ -4833,19 +4833,19 @@
         <v>2</v>
       </c>
       <c r="B210" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>word/worden0951.png</t>
+          <t>word/worden0141.png</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>image/True/img95.png</t>
+          <t>image/True/img14.png</t>
         </is>
       </c>
     </row>
@@ -4854,19 +4854,19 @@
         <v>2</v>
       </c>
       <c r="B211" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>word/worden0591.png</t>
+          <t>word/worden0871.png</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>image/True/img59.png</t>
+          <t>image/True/img87.png</t>
         </is>
       </c>
     </row>
@@ -4875,19 +4875,19 @@
         <v>2</v>
       </c>
       <c r="B212" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>word/worden0561.png</t>
+          <t>word/worden0421.png</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>image/True/img56.png</t>
+          <t>image/False/imgf42.png</t>
         </is>
       </c>
     </row>
@@ -4896,19 +4896,19 @@
         <v>2</v>
       </c>
       <c r="B213" t="n">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>word/worden0951.png</t>
+          <t>word/worden0481.png</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>image/False/imgf95.png</t>
+          <t>image/False/imgf48.png</t>
         </is>
       </c>
     </row>
@@ -4917,19 +4917,19 @@
         <v>2</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>word/worden0011.png</t>
+          <t>word/worden0561.png</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>image/True/img01.png</t>
+          <t>image/False/imgf56.png</t>
         </is>
       </c>
     </row>
@@ -4938,19 +4938,19 @@
         <v>2</v>
       </c>
       <c r="B215" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>word/worden0161.png</t>
+          <t>word/worden0181.png</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>image/False/imgf16.png</t>
+          <t>image/False/imgf18.png</t>
         </is>
       </c>
     </row>
@@ -4959,19 +4959,19 @@
         <v>2</v>
       </c>
       <c r="B216" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>word/worden0891.png</t>
+          <t>word/worden0181.png</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>image/True/img89.png</t>
+          <t>image/False/imgf18.png</t>
         </is>
       </c>
     </row>
@@ -4980,19 +4980,19 @@
         <v>2</v>
       </c>
       <c r="B217" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>word/worden0551.png</t>
+          <t>word/worden0091.png</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>image/False/imgf55.png</t>
+          <t>image/False/imgf09.png</t>
         </is>
       </c>
     </row>
@@ -5001,19 +5001,19 @@
         <v>2</v>
       </c>
       <c r="B218" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>word/worden0111.png</t>
+          <t>word/worden0551.png</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>image/False/imgf11.png</t>
+          <t>image/False/imgf55.png</t>
         </is>
       </c>
     </row>
@@ -5022,19 +5022,19 @@
         <v>2</v>
       </c>
       <c r="B219" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>word/worden0031.png</t>
+          <t>word/worden0171.png</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>image/False/imgf03.png</t>
+          <t>image/False/imgf17.png</t>
         </is>
       </c>
     </row>
@@ -5043,19 +5043,19 @@
         <v>2</v>
       </c>
       <c r="B220" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>word/worden0181.png</t>
+          <t>word/worden0501.png</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>image/False/imgf18.png</t>
+          <t>image/True/img50.png</t>
         </is>
       </c>
     </row>
@@ -5064,19 +5064,19 @@
         <v>2</v>
       </c>
       <c r="B221" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>word/worden0381.png</t>
+          <t>word/worden0201.png</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>image/True/img38.png</t>
+          <t>image/False/imgf20.png</t>
         </is>
       </c>
     </row>
@@ -5085,19 +5085,19 @@
         <v>2</v>
       </c>
       <c r="B222" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>word/worden0081.png</t>
+          <t>word/worden0361.png</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>image/False/imgf08.png</t>
+          <t>image/False/imgf36.png</t>
         </is>
       </c>
     </row>
@@ -5106,19 +5106,19 @@
         <v>2</v>
       </c>
       <c r="B223" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>word/worden0221.png</t>
+          <t>word/worden0071.png</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>image/True/img22.png</t>
+          <t>image/False/imgf07.png</t>
         </is>
       </c>
     </row>
@@ -5127,19 +5127,19 @@
         <v>2</v>
       </c>
       <c r="B224" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>word/worden0311.png</t>
+          <t>word/worden0071.png</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>image/True/img31.png</t>
+          <t>image/True/img07.png</t>
         </is>
       </c>
     </row>
@@ -5148,19 +5148,19 @@
         <v>2</v>
       </c>
       <c r="B225" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>word/worden0141.png</t>
+          <t>word/worden0701.png</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>image/True/img14.png</t>
+          <t>image/False/imgf70.png</t>
         </is>
       </c>
     </row>
@@ -5169,19 +5169,19 @@
         <v>2</v>
       </c>
       <c r="B226" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>word/worden0401.png</t>
+          <t>word/worden0681.png</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>image/True/img40.png</t>
+          <t>image/False/imgf68.png</t>
         </is>
       </c>
     </row>
@@ -5190,19 +5190,19 @@
         <v>2</v>
       </c>
       <c r="B227" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>word/worden0071.png</t>
+          <t>word/worden0231.png</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>image/False/imgf07.png</t>
+          <t>image/False/imgf23.png</t>
         </is>
       </c>
     </row>
@@ -5211,19 +5211,19 @@
         <v>2</v>
       </c>
       <c r="B228" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>word/worden0231.png</t>
+          <t>word/worden0561.png</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>image/False/imgf23.png</t>
+          <t>image/False/imgf56.png</t>
         </is>
       </c>
     </row>
@@ -5232,19 +5232,19 @@
         <v>2</v>
       </c>
       <c r="B229" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>word/worden0061.png</t>
+          <t>word/worden0171.png</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>image/False/imgf06.png</t>
+          <t>image/True/img17.png</t>
         </is>
       </c>
     </row>
@@ -5253,19 +5253,19 @@
         <v>2</v>
       </c>
       <c r="B230" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>word/worden0961.png</t>
+          <t>word/worden0941.png</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>image/False/imgf96.png</t>
+          <t>image/True/img94.png</t>
         </is>
       </c>
     </row>
@@ -5274,19 +5274,19 @@
         <v>2</v>
       </c>
       <c r="B231" t="n">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>word/worden0071.png</t>
+          <t>word/worden0961.png</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>image/True/img07.png</t>
+          <t>image/False/imgf96.png</t>
         </is>
       </c>
     </row>
@@ -5295,19 +5295,19 @@
         <v>2</v>
       </c>
       <c r="B232" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>word/worden0961.png</t>
+          <t>word/worden0821.png</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>image/True/img96.png</t>
+          <t>image/False/imgf82.png</t>
         </is>
       </c>
     </row>
@@ -5316,19 +5316,19 @@
         <v>2</v>
       </c>
       <c r="B233" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>word/worden0631.png</t>
+          <t>word/worden0361.png</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>image/False/imgf63.png</t>
+          <t>image/True/img36.png</t>
         </is>
       </c>
     </row>
@@ -5337,19 +5337,19 @@
         <v>2</v>
       </c>
       <c r="B234" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>word/worden0761.png</t>
+          <t>word/worden0441.png</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>image/True/img76.png</t>
+          <t>image/True/img44.png</t>
         </is>
       </c>
     </row>
@@ -5358,19 +5358,19 @@
         <v>2</v>
       </c>
       <c r="B235" t="n">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>word/worden0951.png</t>
+          <t>word/worden0661.png</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>image/True/img95.png</t>
+          <t>image/True/img66.png</t>
         </is>
       </c>
     </row>
@@ -5379,19 +5379,19 @@
         <v>2</v>
       </c>
       <c r="B236" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>word/worden0641.png</t>
+          <t>word/worden0381.png</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>image/True/img64.png</t>
+          <t>image/False/imgf38.png</t>
         </is>
       </c>
     </row>
@@ -5400,19 +5400,19 @@
         <v>2</v>
       </c>
       <c r="B237" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>word/worden0791.png</t>
+          <t>word/worden0111.png</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>image/False/imgf79.png</t>
+          <t>image/True/img11.png</t>
         </is>
       </c>
     </row>
@@ -5421,19 +5421,19 @@
         <v>2</v>
       </c>
       <c r="B238" t="n">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>word/worden0151.png</t>
+          <t>word/worden0941.png</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>image/False/imgf15.png</t>
+          <t>image/True/img94.png</t>
         </is>
       </c>
     </row>
@@ -5442,19 +5442,19 @@
         <v>2</v>
       </c>
       <c r="B239" t="n">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>word/worden0781.png</t>
+          <t>word/worden0281.png</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>image/False/imgf78.png</t>
+          <t>image/False/imgf28.png</t>
         </is>
       </c>
     </row>
@@ -5463,19 +5463,19 @@
         <v>2</v>
       </c>
       <c r="B240" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>word/worden0931.png</t>
+          <t>word/worden0611.png</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>image/False/imgf93.png</t>
+          <t>image/True/img61.png</t>
         </is>
       </c>
     </row>
@@ -5484,19 +5484,19 @@
         <v>2</v>
       </c>
       <c r="B241" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>word/worden0241.png</t>
+          <t>word/worden0411.png</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>image/True/img24.png</t>
+          <t>image/True/img41.png</t>
         </is>
       </c>
     </row>
